--- a/Data_Driven/Resources/Excel_Files/DataSets.xlsx
+++ b/Data_Driven/Resources/Excel_Files/DataSets.xlsx
@@ -1,21 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBE371-112E-44D5-8BE7-26C0482E9D0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Flight" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Flight_Search_From</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +76,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +163,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +215,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +407,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Driven/Resources/Excel_Files/DataSets.xlsx
+++ b/Data_Driven/Resources/Excel_Files/DataSets.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBE371-112E-44D5-8BE7-26C0482E9D0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Flight" sheetId="1" r:id="rId1"/>
+    <sheet name="Suite" sheetId="2" r:id="rId1"/>
+    <sheet name="Flight" sheetId="3" r:id="rId2"/>
+    <sheet name="Flight_Data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>TestCase ID</t>
-  </si>
-  <si>
-    <t>Test Case Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
   <si>
     <t>Run</t>
   </si>
@@ -29,17 +24,176 @@
     <t>TravelType</t>
   </si>
   <si>
-    <t>To</t>
-  </si>
-  <si>
     <t>Flight_Search_From</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Verify Title</t>
+  </si>
+  <si>
+    <t>Verify Menu Options</t>
+  </si>
+  <si>
+    <t>Verify Values on More Dropdown</t>
+  </si>
+  <si>
+    <t>Verify Oneway Checkbox</t>
+  </si>
+  <si>
+    <t>Verify Round Trip Checkbox</t>
+  </si>
+  <si>
+    <t>Verify Multicity Checkbox</t>
+  </si>
+  <si>
+    <t>Verify Oneway Flight Search</t>
+  </si>
+  <si>
+    <t>Verify Round Trip Search</t>
+  </si>
+  <si>
+    <t>Verify Multicity Search</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Flight_Search_To</t>
+  </si>
+  <si>
+    <t>Deparature_Date</t>
+  </si>
+  <si>
+    <t>Return_Date</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Infants</t>
+  </si>
+  <si>
+    <t>Traveller_Class</t>
+  </si>
+  <si>
+    <t>Carrier_Name</t>
+  </si>
+  <si>
+    <t>Test_Case_Description</t>
+  </si>
+  <si>
+    <t>TestCase_ID</t>
+  </si>
+  <si>
+    <t>Suite_Name</t>
+  </si>
+  <si>
+    <t>Run_Mode</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test Data Required</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Onway Flight </t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>Select Oneway Flight</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>Search Roundtrip flight</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>Select RoundTrip Flight</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>Search Multicity Flight</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>Select Multicity Flight</t>
+  </si>
+  <si>
+    <t>Data_Run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,19 +201,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -68,8 +299,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,23 +410,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -215,23 +445,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,41 +620,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
